--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>441301.0238021772</v>
+        <v>438862.5507024304</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>233.9232825284302</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>269.0820785322675</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>141.4653249683704</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>206.2850895321556</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>281.4356747313003</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,16 +947,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>317.1210202291558</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>167.2490760216201</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>202.110470909839</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>397.5308052145727</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>45.23443023079861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1291,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>91.65302067995515</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>49.78571383206894</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072263</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>185.6920487814947</v>
+        <v>4.665762779850627</v>
       </c>
     </row>
     <row r="14">
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>5.623597659135275</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>19.91555826189143</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>4.019807611472022</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>38.61213096654735</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>245.8796921214433</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>41.55695577161153</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>136.2892803597729</v>
       </c>
       <c r="D28" t="n">
-        <v>130.7323655469549</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>261.3661834507365</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>118.4817021252624</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>49.34762173749108</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018812</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>41.33703994142957</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1091.323932370578</v>
+        <v>1879.829578210439</v>
       </c>
       <c r="C2" t="n">
-        <v>722.3614154301667</v>
+        <v>1510.867061270028</v>
       </c>
       <c r="D2" t="n">
-        <v>364.0957168234162</v>
+        <v>1152.601362663277</v>
       </c>
       <c r="E2" t="n">
-        <v>364.0957168234162</v>
+        <v>766.813110065033</v>
       </c>
       <c r="F2" t="n">
-        <v>364.0957168234162</v>
+        <v>355.8272052754255</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>344.795159160826</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V2" t="n">
-        <v>2594.297517941706</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W2" t="n">
-        <v>2241.528862671592</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X2" t="n">
-        <v>1868.063104410512</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="Y2" t="n">
-        <v>1477.9237724347</v>
+        <v>2266.429418274561</v>
       </c>
     </row>
     <row r="3">
@@ -4398,22 +4398,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,10 +4425,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>453.622008756567</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="C4" t="n">
-        <v>453.622008756567</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D4" t="n">
-        <v>453.622008756567</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E4" t="n">
-        <v>310.7277411117484</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1446.505797040962</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1191.821308835075</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W4" t="n">
-        <v>902.4041387981144</v>
+        <v>926.5399470628088</v>
       </c>
       <c r="X4" t="n">
-        <v>674.4145879000971</v>
+        <v>698.5503961647914</v>
       </c>
       <c r="Y4" t="n">
-        <v>453.622008756567</v>
+        <v>477.7578170212613</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1845.410930903096</v>
+        <v>1285.277735635578</v>
       </c>
       <c r="C5" t="n">
-        <v>1845.410930903096</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="D5" t="n">
-        <v>1487.145232296345</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>1101.356979698101</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>690.3710749084933</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912088</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410101</v>
+        <v>2435.482665936591</v>
       </c>
       <c r="W5" t="n">
-        <v>2609.016021139987</v>
+        <v>2435.482665936591</v>
       </c>
       <c r="X5" t="n">
-        <v>2235.550262878907</v>
+        <v>2062.016907675511</v>
       </c>
       <c r="Y5" t="n">
-        <v>1845.410930903096</v>
+        <v>1671.877575699699</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
         <v>1212.42807043813</v>
@@ -4668,16 +4668,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199866</v>
@@ -4689,7 +4689,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>380.4321398396066</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C7" t="n">
-        <v>380.4321398396066</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1441.626215854828</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1152.523348980472</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V7" t="n">
-        <v>897.8388607745846</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W7" t="n">
-        <v>608.421690737624</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="X7" t="n">
-        <v>380.4321398396066</v>
+        <v>554.5033994003252</v>
       </c>
       <c r="Y7" t="n">
-        <v>380.4321398396066</v>
+        <v>554.5033994003252</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2005.586939522201</v>
+        <v>2038.144201386632</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1669.181684446221</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1310.91598583947</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>925.127733241226</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4844,10 +4844,10 @@
         <v>2424.744041450754</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189674</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y8" t="n">
-        <v>2005.586939522201</v>
+        <v>2424.744041450754</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>917.9306290998774</v>
+        <v>435.8535386027987</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>266.9173556748918</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>116.8007162625561</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>116.8007162625561</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>116.8007162625561</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>116.8007162625561</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218343</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1548.361223971664</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>1548.361223971664</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X10" t="n">
-        <v>1320.371673073647</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="Y10" t="n">
-        <v>1099.579093930117</v>
+        <v>617.5020034330385</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5191,55 +5191,55 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1430.931364336516</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y13" t="n">
         <v>1198.22892174168</v>
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5264,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828446</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>962.6357307816187</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C16" t="n">
-        <v>793.6995478537118</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="D16" t="n">
-        <v>643.582908441376</v>
+        <v>261.8464821474271</v>
       </c>
       <c r="E16" t="n">
-        <v>495.6698148589829</v>
+        <v>113.933388565034</v>
       </c>
       <c r="F16" t="n">
-        <v>348.7798673610725</v>
+        <v>113.933388565034</v>
       </c>
       <c r="G16" t="n">
-        <v>181.5837680759525</v>
+        <v>113.933388565034</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>113.933388565034</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.284195611858</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,16 +5586,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L18" t="n">
         <v>1072.713683962606</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>577.862038843392</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2443.925817935984</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2261.070983590888</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>980.3030828171619</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>759.5105036736318</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,61 +5738,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048574</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>594.8179559048574</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>446.9048623224643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>300.0149148245539</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>132.8188155394338</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6242,22 +6242,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6315,7 +6315,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C28" t="n">
-        <v>763.7541388327643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408906</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6476,34 +6476,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855606</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,10 +6710,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>762.5477693179085</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C34" t="n">
-        <v>593.6115863900017</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D34" t="n">
-        <v>443.4949469776659</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>295.5818533952728</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>295.5818533952728</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>295.5818533952728</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2330.071297269541</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2330.071297269541</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>2040.996070613739</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7309,25 +7309,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7339,31 +7339,31 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V40" t="n">
         <v>1491.508541327549</v>
@@ -7400,7 +7400,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,19 +7488,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>695.5020655703109</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C43" t="n">
-        <v>526.5658826424041</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D43" t="n">
         <v>484.8112968429803</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>60.18224233040683</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60.68448185889025</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22601,16 +22601,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>178.4823526559516</v>
       </c>
       <c r="V2" t="n">
-        <v>58.67017993786737</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856647</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.8926045706001</v>
+        <v>213.9188905722442</v>
       </c>
     </row>
     <row r="14">
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>134.6711151870886</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>61.35027805667407</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462197</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>63.36835372228754</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>101.6825818796765</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016455</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>6.257951202384731</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>104.8770068749576</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016493</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24494,7 +24494,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-2.945315721635453e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>30.95754073885496</v>
       </c>
       <c r="D28" t="n">
-        <v>17.88310747125746</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24886,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>24.81829093850763</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>21.81301072096153</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>131.6786642641535</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>57.2291039219468</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>107.2784330767828</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>3.329716221310008</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>964576.4516873178</v>
+        <v>964576.4516873173</v>
       </c>
     </row>
     <row r="3">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1041920.737870016</v>
+        <v>1041920.737870017</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1041920.737870017</v>
+        <v>1041920.737870016</v>
       </c>
     </row>
     <row r="15">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>354580.0968631199</v>
+        <v>354580.0968631197</v>
       </c>
       <c r="C2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855344</v>
       </c>
       <c r="D2" t="n">
         <v>389994.8406855345</v>
       </c>
       <c r="E2" t="n">
+        <v>383394.6348527531</v>
+      </c>
+      <c r="F2" t="n">
         <v>383394.634852753</v>
       </c>
-      <c r="F2" t="n">
-        <v>383394.6348527528</v>
-      </c>
       <c r="G2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527531</v>
       </c>
       <c r="H2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527531</v>
       </c>
       <c r="I2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="J2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="K2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527531</v>
       </c>
       <c r="L2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="M2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="N2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.6348527531</v>
       </c>
       <c r="O2" t="n">
-        <v>383394.6348527531</v>
+        <v>383394.6348527528</v>
       </c>
       <c r="P2" t="n">
         <v>383394.634852753</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551174</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50238.95917052894</v>
+        <v>50238.95917052863</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.842883194</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184274</v>
@@ -26430,10 +26430,10 @@
         <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="H4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184275</v>
@@ -26442,10 +26442,10 @@
         <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
         <v>13606.80811184274</v>
@@ -26457,7 +26457,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1132337.548596395</v>
+        <v>-1132523.941984934</v>
       </c>
       <c r="C6" t="n">
-        <v>189267.0572409469</v>
+        <v>189267.0572409471</v>
       </c>
       <c r="D6" t="n">
-        <v>189267.0572409472</v>
+        <v>189267.0572409471</v>
       </c>
       <c r="E6" t="n">
-        <v>-56747.16489035195</v>
+        <v>-56781.90281578809</v>
       </c>
       <c r="F6" t="n">
-        <v>268665.296917003</v>
+        <v>268630.5589915674</v>
       </c>
       <c r="G6" t="n">
-        <v>268665.2969170032</v>
+        <v>268630.5589915678</v>
       </c>
       <c r="H6" t="n">
-        <v>268665.2969170031</v>
+        <v>268630.5589915676</v>
       </c>
       <c r="I6" t="n">
-        <v>268665.2969170031</v>
+        <v>268630.5589915675</v>
       </c>
       <c r="J6" t="n">
-        <v>51134.09451972564</v>
+        <v>51099.3565942899</v>
       </c>
       <c r="K6" t="n">
-        <v>268665.2969170031</v>
+        <v>268630.5589915675</v>
       </c>
       <c r="L6" t="n">
-        <v>268665.2969170032</v>
+        <v>268630.5589915673</v>
       </c>
       <c r="M6" t="n">
-        <v>183610.2689814914</v>
+        <v>183575.5310560557</v>
       </c>
       <c r="N6" t="n">
-        <v>268665.2969170031</v>
+        <v>268630.5589915675</v>
       </c>
       <c r="O6" t="n">
-        <v>268665.2969170033</v>
+        <v>268630.5589915673</v>
       </c>
       <c r="P6" t="n">
-        <v>268665.2969170031</v>
+        <v>268630.5589915674</v>
       </c>
     </row>
   </sheetData>
@@ -26787,34 +26787,34 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>321.7481277418549</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>72.51281930295033</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27543,16 +27543,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>4.968637678198803</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>80.23790880443539</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>129.4860509221531</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>10.63123824097909</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>12.58290416031721</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,10 +27786,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>17.43847836633023</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>9.345240527138742</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>341.0035084252549</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>75.59380041867269</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>94.96930108225183</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,10 +28059,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29244,7 +29244,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>-2.430161791044281e-12</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -29703,7 +29703,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30411,7 +30411,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532615</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>232.7599890885191</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,16 +32315,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>400.5469039565762</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,19 +33026,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34135,7 +34135,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34208,10 +34208,10 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312432</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>98.78558167418883</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,13 +35966,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>257.9506595121318</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,16 +36677,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,16 +36914,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899094</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010406</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
